--- a/biology/Médecine/Hermann_Emminghaus/Hermann_Emminghaus.xlsx
+++ b/biology/Médecine/Hermann_Emminghaus/Hermann_Emminghaus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Emminghaus, né à Weimar le 20 mai 1845 et mort le 17 février 1904 à Fribourg-en-Brisgau, est un psychiatre allemand. Il fut pionnier dans la psychologie des enfants et des adolescents et fut un des fondateurs de la psychopathologie du développement.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudia la médecine aux universités de Göttingen et de Iéna et obtint son doctorat de médecine en 1869 ; il fut l'assistant de Carl Gerhardt (1833-1902), directeur de la clinique médicale d'Iéna. De 1874 à 1880, il travailla à l'université de Wurtzbourg, où il était assistant de Franz von Rinecker (1811-1883).
 En 1880, il fut nommé à la première chaire de psychiatrie de l'université de Dorpat. Lorsqu'il quitta sa chaire de Dorpat en 1886, il y fut remplacé par Emil Kraepelin (1856-1926). En 1886, Emminghaus fut nommé professeur de psychiatrie à l'université de Fribourg-en-Brisgau où il institua un nouveau comportement vis-à-vis des malades mentaux, fondé, en particulier, sur l'absence de contraintes.
@@ -544,7 +558,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1984, le "Prix Hermann Emminghaus" récompense tous les deux ans les meilleurs travaux scientifiques sur la psychiatrie de l'enfance et de l'adolescence.
 </t>
@@ -575,7 +591,9 @@
           <t>Œuvres sélectionnées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Über hysterisches Irresein: Ein Beitrag zur Pathogenese der Geisteskrankheiten (thèse de doctorat, Iéna, 1870) « Sur la folie hystérique : contribution à la parthénogenèse des maladies mentales » ;
 Allgemeine Psychopathologie zur Einführung in das Studium der Geistesstörungen « Psychopathologie générale : Introduction à l'étude des troubles mentaux », 1878 ;
